--- a/docs/flow/broadcast_product_relationship.xlsx
+++ b/docs/flow/broadcast_product_relationship.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoric/Devel/Smartbox/millenniumfalcon/r2-d2-api/docs/flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB7DB90-6963-D045-93CA-4C1CEF83B3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C7C4C-98AE-C34C-A6A7-6FEA2789B9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
   <si>
     <t>Integration Information</t>
   </si>
@@ -1049,28 +1049,63 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1131,41 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1454,8 +1454,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1475,38 +1477,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1518,37 +1520,37 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1570,23 +1572,23 @@
       <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1612,13 +1614,13 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="K9" s="5"/>
@@ -1638,13 +1640,13 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1656,25 +1658,25 @@
       <c r="A11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1686,13 +1688,13 @@
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1738,59 +1740,59 @@
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="68"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="68"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="41"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="41"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="41"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="40" t="s">
+      <c r="U16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="41"/>
+      <c r="V16" s="42"/>
       <c r="W16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="65" t="s">
+      <c r="X16" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="Y16" s="41"/>
+      <c r="Y16" s="42"/>
     </row>
     <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
@@ -1799,53 +1801,53 @@
       <c r="B17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="68"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="41"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="41"/>
+      <c r="S17" s="42"/>
       <c r="T17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U17" s="40" t="s">
+      <c r="U17" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="41"/>
+      <c r="V17" s="42"/>
       <c r="W17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="X17" s="66" t="s">
+      <c r="X17" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Y17" s="41"/>
+      <c r="Y17" s="42"/>
     </row>
     <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
@@ -1987,10 +1989,10 @@
       <c r="W19" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="X19" s="69" t="s">
+      <c r="X19" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="Y19" s="69" t="s">
+      <c r="Y19" s="40" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2057,10 +2059,10 @@
       <c r="W20" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="X20" s="69" t="s">
+      <c r="X20" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="Y20" s="69" t="s">
+      <c r="Y20" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2124,7 +2126,9 @@
       <c r="W21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="X21" s="23"/>
+      <c r="X21" s="37" t="s">
+        <v>76</v>
+      </c>
       <c r="Y21" s="38" t="s">
         <v>76</v>
       </c>
@@ -2931,76 +2935,76 @@
       <c r="A49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="42" t="s">
+      <c r="F49" s="46"/>
+      <c r="G49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="H49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="44"/>
-      <c r="J49" s="42" t="s">
+      <c r="I49" s="46"/>
+      <c r="J49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="42" t="s">
+      <c r="K49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="44"/>
+      <c r="L49" s="46"/>
       <c r="M49" s="25"/>
-      <c r="N49" s="42" t="s">
+      <c r="N49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="44"/>
+      <c r="O49" s="46"/>
       <c r="P49" s="25"/>
-      <c r="Q49" s="42" t="s">
+      <c r="Q49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="R49" s="44"/>
+      <c r="R49" s="46"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="42" t="s">
+      <c r="T49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="44"/>
+      <c r="U49" s="46"/>
       <c r="V49" s="26"/>
-      <c r="W49" s="42" t="s">
+      <c r="W49" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="X49" s="44"/>
+      <c r="X49" s="46"/>
       <c r="Y49" s="26"/>
     </row>
     <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="47"/>
       <c r="M50" s="28"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="47"/>
       <c r="P50" s="28"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="47"/>
       <c r="S50" s="28"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="47"/>
       <c r="V50" s="26"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="47"/>
       <c r="Y50" s="26"/>
     </row>
     <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -4150,6 +4154,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="W49:W50"/>
@@ -4166,37 +4201,6 @@
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4204,24 +4208,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Additional_x0020_flows xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
-    <Main_x0020_flow xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100004C70840A00D14FB073C782B006FD00" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="974a15952d20d9f2abfd0f4c1d7e96cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1" xmlns:ns3="73d215bf-fdbb-4743-8037-d05701f5ec3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54a37532de1df6a1cb8ca128e8aea285" ns2:_="" ns3:_="">
     <xsd:import namespace="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1"/>
@@ -4414,25 +4400,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52B1DA-58FC-44C8-90D5-7D9847EDD99E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Additional_x0020_flows xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
+    <Main_x0020_flow xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F82486-3A10-40F9-A352-ECFECF2B0A58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="73d215bf-fdbb-4743-8037-d05701f5ec3f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35ED3D55-76FD-4361-8342-B36ADE1A712C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4449,4 +4435,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F82486-3A10-40F9-A352-ECFECF2B0A58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="73d215bf-fdbb-4743-8037-d05701f5ec3f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52B1DA-58FC-44C8-90D5-7D9847EDD99E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/flow/broadcast_product_relationship.xlsx
+++ b/docs/flow/broadcast_product_relationship.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoric/Devel/Smartbox/millenniumfalcon/r2-d2-api/docs/flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C7C4C-98AE-C34C-A6A7-6FEA2789B9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048FC517-B681-4941-B816-14DACB7A5FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,13 +381,13 @@
     <t>/broadcast_listernes/product_relationships</t>
   </si>
   <si>
-    <t>parent_product.smartbox_id</t>
-  </si>
-  <si>
-    <t>child_product.smartbox_id</t>
-  </si>
-  <si>
-    <t>smartbox_id</t>
+    <t>golden_id</t>
+  </si>
+  <si>
+    <t>parent_product.golden_id</t>
+  </si>
+  <si>
+    <t>child_product.golden_id</t>
   </si>
 </sst>
 </file>
@@ -1049,37 +1049,114 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1088,84 +1165,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1457,7 +1457,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="X21" sqref="X21"/>
+      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1477,38 +1477,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1520,37 +1520,37 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1572,23 +1572,23 @@
       <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1614,13 +1614,13 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="K9" s="5"/>
@@ -1640,13 +1640,13 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1658,25 +1658,25 @@
       <c r="A11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1688,13 +1688,13 @@
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1740,59 +1740,59 @@
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="42"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="42"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="42"/>
+      <c r="P16" s="41"/>
       <c r="Q16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="50" t="s">
+      <c r="R16" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="42"/>
+      <c r="S16" s="41"/>
       <c r="T16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="50" t="s">
+      <c r="U16" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="42"/>
+      <c r="V16" s="41"/>
       <c r="W16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="41" t="s">
+      <c r="X16" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="Y16" s="42"/>
+      <c r="Y16" s="41"/>
     </row>
     <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
@@ -1801,53 +1801,53 @@
       <c r="B17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="42"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="42"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="50"/>
-      <c r="P17" s="42"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
       <c r="Q17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="50" t="s">
+      <c r="R17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="42"/>
+      <c r="S17" s="41"/>
       <c r="T17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="U17" s="50" t="s">
+      <c r="U17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="42"/>
+      <c r="V17" s="41"/>
       <c r="W17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="X17" s="43" t="s">
+      <c r="X17" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="Y17" s="42"/>
+      <c r="Y17" s="41"/>
     </row>
     <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
@@ -1989,11 +1989,11 @@
       <c r="W19" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="X19" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y19" s="40" t="s">
+      <c r="X19" s="69" t="s">
         <v>108</v>
+      </c>
+      <c r="Y19" s="69" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2059,11 +2059,11 @@
       <c r="W20" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="X20" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y20" s="69" t="s">
         <v>110</v>
-      </c>
-      <c r="Y20" s="40" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -2935,76 +2935,76 @@
       <c r="A49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="46"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="44" t="s">
+      <c r="E49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="44" t="s">
+      <c r="F49" s="44"/>
+      <c r="G49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="44" t="s">
+      <c r="I49" s="44"/>
+      <c r="J49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="44" t="s">
+      <c r="K49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="46"/>
+      <c r="L49" s="44"/>
       <c r="M49" s="25"/>
-      <c r="N49" s="44" t="s">
+      <c r="N49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="46"/>
+      <c r="O49" s="44"/>
       <c r="P49" s="25"/>
-      <c r="Q49" s="44" t="s">
+      <c r="Q49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="R49" s="46"/>
+      <c r="R49" s="44"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="44" t="s">
+      <c r="T49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="46"/>
+      <c r="U49" s="44"/>
       <c r="V49" s="26"/>
-      <c r="W49" s="44" t="s">
+      <c r="W49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="X49" s="46"/>
+      <c r="X49" s="44"/>
       <c r="Y49" s="26"/>
     </row>
     <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="47"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="28"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="47"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="45"/>
       <c r="P50" s="28"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="47"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="28"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="47"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="45"/>
       <c r="V50" s="26"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="47"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="45"/>
       <c r="Y50" s="26"/>
     </row>
     <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
@@ -4154,37 +4154,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="W49:W50"/>
@@ -4201,6 +4170,37 @@
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4208,6 +4208,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Additional_x0020_flows xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
+    <Main_x0020_flow xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100004C70840A00D14FB073C782B006FD00" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="974a15952d20d9f2abfd0f4c1d7e96cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1" xmlns:ns3="73d215bf-fdbb-4743-8037-d05701f5ec3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54a37532de1df6a1cb8ca128e8aea285" ns2:_="" ns3:_="">
     <xsd:import namespace="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1"/>
@@ -4400,25 +4418,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Additional_x0020_flows xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
-    <Main_x0020_flow xmlns="73d215bf-fdbb-4743-8037-d05701f5ec3f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52B1DA-58FC-44C8-90D5-7D9847EDD99E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F82486-3A10-40F9-A352-ECFECF2B0A58}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="73d215bf-fdbb-4743-8037-d05701f5ec3f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35ED3D55-76FD-4361-8342-B36ADE1A712C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4435,22 +4453,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F82486-3A10-40F9-A352-ECFECF2B0A58}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="73d215bf-fdbb-4743-8037-d05701f5ec3f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F52B1DA-58FC-44C8-90D5-7D9847EDD99E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>